--- a/Data/ham_da_thuc.xlsx
+++ b/Data/ham_da_thuc.xlsx
@@ -162,10 +162,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -419,11 +419,6 @@
         <v>6.4641</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/ham_da_thuc.xlsx
+++ b/Data/ham_da_thuc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">H=0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">X0=0.9</t>
+    <t xml:space="preserve">X0=0.8 → index =8</t>
   </si>
   <si>
     <t xml:space="preserve">0-19</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">2→7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index=10 → x0=0.9</t>
   </si>
 </sst>
 </file>
@@ -164,8 +167,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,6 +331,9 @@
         <f aca="false">A12^4-2*A12^3+5*A12^2-A12-9</f>
         <v>-6</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">

--- a/Data/ham_da_thuc.xlsx
+++ b/Data/ham_da_thuc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">index x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ly</t>
   </si>
   <si>
     <t xml:space="preserve">H=0.1</t>
@@ -77,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,6 +105,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +168,338 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="81476119"/>
+        <c:axId val="76488890"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81476119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76488890"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76488890"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81476119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>270720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5968080" y="36000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -165,10 +507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -192,6 +534,12 @@
       <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -202,7 +550,13 @@
         <v>-9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,13 +569,19 @@
         <v>-9.0519</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,6 +593,12 @@
         <f aca="false">A4^4-2*A4^3+5*A4^2-A4-9</f>
         <v>-9.0144</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -244,13 +610,19 @@
         <v>-8.8959</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>210.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,6 +634,12 @@
         <f aca="false">A6^4-2*A6^3+5*A6^2-A6-9</f>
         <v>-8.7024</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -273,13 +651,13 @@
         <v>-8.4375</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,7 +710,7 @@
         <v>-6</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,5 +811,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/ham_da_thuc.xlsx
+++ b/Data/ham_da_thuc.xlsx
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -105,11 +105,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,338 +163,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ly</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1970</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="81476119"/>
-        <c:axId val="76488890"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="81476119"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="76488890"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="76488890"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81476119"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>586800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>270720</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5968080" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,8 +173,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,12 +469,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>